--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_rs.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_rs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECE2278-8473-4B6B-A66D-9EE30B1301B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6241CE6-4C0A-5545-BD13-62658E022F90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2954,16 +2954,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -2987,9 +2981,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3295,20 +3288,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D503"/>
+  <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C1048574"/>
+    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
+      <selection activeCell="A499" sqref="A499:E521"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>972</v>
       </c>
@@ -3322,7 +3315,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4300034</v>
       </c>
@@ -3333,7 +3326,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4300059</v>
       </c>
@@ -3344,7 +3337,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4300109</v>
       </c>
@@ -3355,7 +3348,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4300208</v>
       </c>
@@ -3366,7 +3359,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4300307</v>
       </c>
@@ -3377,7 +3370,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4300406</v>
       </c>
@@ -3388,7 +3381,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4300455</v>
       </c>
@@ -3399,7 +3392,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4300471</v>
       </c>
@@ -3410,7 +3403,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4300505</v>
       </c>
@@ -3421,7 +3414,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4300554</v>
       </c>
@@ -3432,7 +3425,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4300570</v>
       </c>
@@ -3443,7 +3436,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4300604</v>
       </c>
@@ -3454,7 +3447,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4300638</v>
       </c>
@@ -3465,7 +3458,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4300646</v>
       </c>
@@ -3476,7 +3469,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4300661</v>
       </c>
@@ -3487,7 +3480,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4300703</v>
       </c>
@@ -3498,7 +3491,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4300802</v>
       </c>
@@ -3509,7 +3502,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4300851</v>
       </c>
@@ -3520,7 +3513,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4300877</v>
       </c>
@@ -3531,7 +3524,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4300901</v>
       </c>
@@ -3542,7 +3535,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4301008</v>
       </c>
@@ -3553,7 +3546,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4301057</v>
       </c>
@@ -3564,7 +3557,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4301073</v>
       </c>
@@ -3575,7 +3568,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4301107</v>
       </c>
@@ -3586,7 +3579,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4301206</v>
       </c>
@@ -3597,7 +3590,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4301305</v>
       </c>
@@ -3608,7 +3601,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4301404</v>
       </c>
@@ -3619,7 +3612,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4301503</v>
       </c>
@@ -3630,7 +3623,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4301552</v>
       </c>
@@ -3641,7 +3634,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4301602</v>
       </c>
@@ -3652,7 +3645,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4301636</v>
       </c>
@@ -3663,7 +3656,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4301651</v>
       </c>
@@ -3674,7 +3667,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4301701</v>
       </c>
@@ -3685,7 +3678,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4301750</v>
       </c>
@@ -3696,7 +3689,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4301800</v>
       </c>
@@ -3707,7 +3700,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4301859</v>
       </c>
@@ -3718,7 +3711,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4301875</v>
       </c>
@@ -3729,7 +3722,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4301909</v>
       </c>
@@ -3740,7 +3733,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4301925</v>
       </c>
@@ -3751,7 +3744,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4301958</v>
       </c>
@@ -3762,7 +3755,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4302006</v>
       </c>
@@ -3773,7 +3766,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4302055</v>
       </c>
@@ -3784,7 +3777,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4302105</v>
       </c>
@@ -3795,7 +3788,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4302154</v>
       </c>
@@ -3806,7 +3799,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4302204</v>
       </c>
@@ -3817,7 +3810,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4302220</v>
       </c>
@@ -3828,7 +3821,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4302238</v>
       </c>
@@ -3839,7 +3832,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4302253</v>
       </c>
@@ -3850,7 +3843,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4302303</v>
       </c>
@@ -3861,7 +3854,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4302352</v>
       </c>
@@ -3872,7 +3865,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4302378</v>
       </c>
@@ -3883,7 +3876,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4302402</v>
       </c>
@@ -3894,7 +3887,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4302451</v>
       </c>
@@ -3905,7 +3898,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4302501</v>
       </c>
@@ -3916,7 +3909,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4302584</v>
       </c>
@@ -3927,7 +3920,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4302600</v>
       </c>
@@ -3938,7 +3931,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4302659</v>
       </c>
@@ -3949,7 +3942,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4302709</v>
       </c>
@@ -3960,7 +3953,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4302808</v>
       </c>
@@ -3971,7 +3964,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4302907</v>
       </c>
@@ -3982,7 +3975,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4303004</v>
       </c>
@@ -3993,7 +3986,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4303103</v>
       </c>
@@ -4004,7 +3997,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4303202</v>
       </c>
@@ -4015,7 +4008,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4303301</v>
       </c>
@@ -4026,7 +4019,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4303400</v>
       </c>
@@ -4037,7 +4030,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4303509</v>
       </c>
@@ -4048,7 +4041,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4303558</v>
       </c>
@@ -4059,7 +4052,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4303608</v>
       </c>
@@ -4070,7 +4063,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4303673</v>
       </c>
@@ -4081,7 +4074,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4303707</v>
       </c>
@@ -4092,7 +4085,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4303806</v>
       </c>
@@ -4103,7 +4096,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4303905</v>
       </c>
@@ -4114,7 +4107,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4304002</v>
       </c>
@@ -4125,7 +4118,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4304101</v>
       </c>
@@ -4136,7 +4129,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4304200</v>
       </c>
@@ -4147,7 +4140,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4304309</v>
       </c>
@@ -4158,7 +4151,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4304358</v>
       </c>
@@ -4169,7 +4162,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4304408</v>
       </c>
@@ -4180,7 +4173,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4304507</v>
       </c>
@@ -4191,7 +4184,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4304606</v>
       </c>
@@ -4202,7 +4195,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4304614</v>
       </c>
@@ -4213,7 +4206,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4304622</v>
       </c>
@@ -4224,7 +4217,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4304630</v>
       </c>
@@ -4235,7 +4228,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4304655</v>
       </c>
@@ -4246,7 +4239,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4304663</v>
       </c>
@@ -4257,7 +4250,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4304671</v>
       </c>
@@ -4268,7 +4261,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4304689</v>
       </c>
@@ -4279,7 +4272,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4304697</v>
       </c>
@@ -4290,7 +4283,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4304705</v>
       </c>
@@ -4301,7 +4294,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>4304713</v>
       </c>
@@ -4312,7 +4305,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4304804</v>
       </c>
@@ -4323,7 +4316,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4304853</v>
       </c>
@@ -4334,7 +4327,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4304903</v>
       </c>
@@ -4345,7 +4338,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4304952</v>
       </c>
@@ -4356,7 +4349,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4305009</v>
       </c>
@@ -4367,7 +4360,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4305108</v>
       </c>
@@ -4378,7 +4371,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>4305116</v>
       </c>
@@ -4389,7 +4382,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4305124</v>
       </c>
@@ -4400,7 +4393,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4305132</v>
       </c>
@@ -4411,7 +4404,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4305157</v>
       </c>
@@ -4422,7 +4415,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4305173</v>
       </c>
@@ -4433,7 +4426,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4305207</v>
       </c>
@@ -4444,7 +4437,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4305306</v>
       </c>
@@ -4455,7 +4448,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4305355</v>
       </c>
@@ -4466,7 +4459,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>4305371</v>
       </c>
@@ -4477,7 +4470,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4305405</v>
       </c>
@@ -4488,7 +4481,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>4305439</v>
       </c>
@@ -4499,7 +4492,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4305447</v>
       </c>
@@ -4510,7 +4503,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4305454</v>
       </c>
@@ -4521,7 +4514,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4305504</v>
       </c>
@@ -4532,7 +4525,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>4305587</v>
       </c>
@@ -4543,7 +4536,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>4305603</v>
       </c>
@@ -4554,7 +4547,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>4305702</v>
       </c>
@@ -4565,7 +4558,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>4305801</v>
       </c>
@@ -4576,7 +4569,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>4305835</v>
       </c>
@@ -4587,7 +4580,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>4305850</v>
       </c>
@@ -4598,7 +4591,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>4305871</v>
       </c>
@@ -4609,7 +4602,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>4305900</v>
       </c>
@@ -4620,7 +4613,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>4305934</v>
       </c>
@@ -4631,7 +4624,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>4305959</v>
       </c>
@@ -4642,7 +4635,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>4305975</v>
       </c>
@@ -4653,7 +4646,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>4306007</v>
       </c>
@@ -4664,7 +4657,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>4306056</v>
       </c>
@@ -4675,7 +4668,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4306072</v>
       </c>
@@ -4686,7 +4679,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>4306106</v>
       </c>
@@ -4697,7 +4690,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>4306130</v>
       </c>
@@ -4708,7 +4701,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>4306205</v>
       </c>
@@ -4719,7 +4712,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>4306304</v>
       </c>
@@ -4730,7 +4723,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>4306320</v>
       </c>
@@ -4741,7 +4734,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>4306353</v>
       </c>
@@ -4752,7 +4745,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>4306379</v>
       </c>
@@ -4763,7 +4756,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>4306403</v>
       </c>
@@ -4774,7 +4767,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>4306429</v>
       </c>
@@ -4785,7 +4778,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>4306452</v>
       </c>
@@ -4796,7 +4789,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>4306502</v>
       </c>
@@ -4807,7 +4800,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>4306551</v>
       </c>
@@ -4818,7 +4811,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>4306601</v>
       </c>
@@ -4829,7 +4822,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>4306700</v>
       </c>
@@ -4840,7 +4833,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>4306734</v>
       </c>
@@ -4851,7 +4844,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>4306759</v>
       </c>
@@ -4862,7 +4855,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>4306767</v>
       </c>
@@ -4873,7 +4866,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>4306809</v>
       </c>
@@ -4884,7 +4877,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>4306908</v>
       </c>
@@ -4895,7 +4888,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>4306924</v>
       </c>
@@ -4906,7 +4899,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>4306932</v>
       </c>
@@ -4917,7 +4910,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>4306957</v>
       </c>
@@ -4928,7 +4921,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>4306973</v>
       </c>
@@ -4939,7 +4932,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>4307005</v>
       </c>
@@ -4950,7 +4943,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>4307054</v>
       </c>
@@ -4961,7 +4954,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>4307104</v>
       </c>
@@ -4972,7 +4965,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>4307203</v>
       </c>
@@ -4983,7 +4976,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>4307302</v>
       </c>
@@ -4994,7 +4987,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>4307401</v>
       </c>
@@ -5005,7 +4998,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>4307450</v>
       </c>
@@ -5016,7 +5009,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>4307500</v>
       </c>
@@ -5027,7 +5020,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>4307559</v>
       </c>
@@ -5038,7 +5031,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>4307609</v>
       </c>
@@ -5049,7 +5042,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>4307708</v>
       </c>
@@ -5060,7 +5053,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>4307807</v>
       </c>
@@ -5071,7 +5064,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>4307815</v>
       </c>
@@ -5082,7 +5075,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>4307831</v>
       </c>
@@ -5093,7 +5086,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>4307864</v>
       </c>
@@ -5104,7 +5097,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>4307906</v>
       </c>
@@ -5115,7 +5108,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>4308003</v>
       </c>
@@ -5126,7 +5119,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>4308052</v>
       </c>
@@ -5137,7 +5130,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>4308078</v>
       </c>
@@ -5148,7 +5141,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>4308102</v>
       </c>
@@ -5159,7 +5152,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>4308201</v>
       </c>
@@ -5170,7 +5163,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>4308250</v>
       </c>
@@ -5181,7 +5174,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>4308300</v>
       </c>
@@ -5192,7 +5185,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>4308409</v>
       </c>
@@ -5203,7 +5196,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>4308433</v>
       </c>
@@ -5214,7 +5207,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>4308458</v>
       </c>
@@ -5225,7 +5218,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>4308508</v>
       </c>
@@ -5236,7 +5229,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>4308607</v>
       </c>
@@ -5247,7 +5240,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>4308656</v>
       </c>
@@ -5258,7 +5251,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>4308706</v>
       </c>
@@ -5269,7 +5262,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>4308805</v>
       </c>
@@ -5280,7 +5273,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>4308854</v>
       </c>
@@ -5291,7 +5284,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>4308904</v>
       </c>
@@ -5302,7 +5295,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>4309001</v>
       </c>
@@ -5313,7 +5306,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>4309050</v>
       </c>
@@ -5324,7 +5317,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>4309100</v>
       </c>
@@ -5335,7 +5328,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>4309126</v>
       </c>
@@ -5346,7 +5339,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>4309159</v>
       </c>
@@ -5357,7 +5350,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>4309209</v>
       </c>
@@ -5368,7 +5361,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>4309258</v>
       </c>
@@ -5379,7 +5372,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>4309308</v>
       </c>
@@ -5390,7 +5383,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>4309407</v>
       </c>
@@ -5401,7 +5394,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>4309506</v>
       </c>
@@ -5412,7 +5405,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>4309555</v>
       </c>
@@ -5423,7 +5416,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>4309571</v>
       </c>
@@ -5434,7 +5427,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>4309605</v>
       </c>
@@ -5445,7 +5438,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>4309654</v>
       </c>
@@ -5456,7 +5449,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>4309704</v>
       </c>
@@ -5467,7 +5460,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>4309753</v>
       </c>
@@ -5478,7 +5471,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>4309803</v>
       </c>
@@ -5489,7 +5482,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>4309902</v>
       </c>
@@ -5500,7 +5493,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>4309951</v>
       </c>
@@ -5511,7 +5504,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>4310009</v>
       </c>
@@ -5522,7 +5515,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>4310108</v>
       </c>
@@ -5533,7 +5526,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>4310207</v>
       </c>
@@ -5544,7 +5537,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>4310306</v>
       </c>
@@ -5555,7 +5548,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>4310330</v>
       </c>
@@ -5566,7 +5559,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>4310363</v>
       </c>
@@ -5577,7 +5570,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>4310405</v>
       </c>
@@ -5588,7 +5581,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>4310413</v>
       </c>
@@ -5599,7 +5592,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>4310439</v>
       </c>
@@ -5610,7 +5603,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>4310462</v>
       </c>
@@ -5621,7 +5614,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>4310504</v>
       </c>
@@ -5632,7 +5625,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>4310538</v>
       </c>
@@ -5643,7 +5636,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>4310553</v>
       </c>
@@ -5654,7 +5647,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>4310579</v>
       </c>
@@ -5665,7 +5658,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>4310603</v>
       </c>
@@ -5676,7 +5669,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>4310652</v>
       </c>
@@ -5687,7 +5680,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>4310702</v>
       </c>
@@ -5698,7 +5691,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>4310751</v>
       </c>
@@ -5709,7 +5702,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>4310801</v>
       </c>
@@ -5720,7 +5713,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>4310850</v>
       </c>
@@ -5731,7 +5724,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>4310876</v>
       </c>
@@ -5742,7 +5735,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>4310900</v>
       </c>
@@ -5753,7 +5746,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>4311007</v>
       </c>
@@ -5764,7 +5757,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>4311106</v>
       </c>
@@ -5775,7 +5768,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>4311122</v>
       </c>
@@ -5786,7 +5779,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>4311130</v>
       </c>
@@ -5797,7 +5790,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>4311155</v>
       </c>
@@ -5808,7 +5801,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>4311205</v>
       </c>
@@ -5819,7 +5812,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>4311239</v>
       </c>
@@ -5830,7 +5823,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>4311254</v>
       </c>
@@ -5841,7 +5834,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>4311270</v>
       </c>
@@ -5852,7 +5845,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>4311304</v>
       </c>
@@ -5863,7 +5856,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>4311403</v>
       </c>
@@ -5874,7 +5867,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>4311429</v>
       </c>
@@ -5885,7 +5878,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>4311502</v>
       </c>
@@ -5896,7 +5889,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>4311601</v>
       </c>
@@ -5907,7 +5900,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>4311627</v>
       </c>
@@ -5918,7 +5911,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>4311643</v>
       </c>
@@ -5929,7 +5922,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>4311700</v>
       </c>
@@ -5940,7 +5933,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>4311718</v>
       </c>
@@ -5951,7 +5944,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>4311734</v>
       </c>
@@ -5962,7 +5955,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>4311759</v>
       </c>
@@ -5973,7 +5966,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>4311775</v>
       </c>
@@ -5984,7 +5977,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>4311791</v>
       </c>
@@ -5995,7 +5988,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>4311809</v>
       </c>
@@ -6006,7 +5999,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>4311908</v>
       </c>
@@ -6017,7 +6010,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>4311981</v>
       </c>
@@ -6028,7 +6021,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>4312005</v>
       </c>
@@ -6039,7 +6032,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>4312054</v>
       </c>
@@ -6050,7 +6043,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>4312104</v>
       </c>
@@ -6061,7 +6054,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>4312138</v>
       </c>
@@ -6072,7 +6065,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>4312153</v>
       </c>
@@ -6083,7 +6076,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>4312179</v>
       </c>
@@ -6094,7 +6087,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>4312203</v>
       </c>
@@ -6105,7 +6098,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>4312252</v>
       </c>
@@ -6116,7 +6109,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>4312302</v>
       </c>
@@ -6127,7 +6120,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>4312351</v>
       </c>
@@ -6138,7 +6131,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>4312377</v>
       </c>
@@ -6149,7 +6142,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>4312385</v>
       </c>
@@ -6160,7 +6153,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>4312401</v>
       </c>
@@ -6171,7 +6164,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>4312427</v>
       </c>
@@ -6182,7 +6175,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>4312443</v>
       </c>
@@ -6193,7 +6186,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>4312450</v>
       </c>
@@ -6204,7 +6197,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>4312476</v>
       </c>
@@ -6215,7 +6208,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>4312500</v>
       </c>
@@ -6226,7 +6219,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>4312609</v>
       </c>
@@ -6237,7 +6230,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>4312617</v>
       </c>
@@ -6248,7 +6241,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>4312625</v>
       </c>
@@ -6259,7 +6252,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>4312658</v>
       </c>
@@ -6270,7 +6263,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>4312674</v>
       </c>
@@ -6281,7 +6274,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>4312708</v>
       </c>
@@ -6292,7 +6285,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>4312757</v>
       </c>
@@ -6303,7 +6296,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>4312807</v>
       </c>
@@ -6314,7 +6307,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>4312906</v>
       </c>
@@ -6325,7 +6318,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>4312955</v>
       </c>
@@ -6336,7 +6329,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>4313003</v>
       </c>
@@ -6347,7 +6340,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>4313011</v>
       </c>
@@ -6358,7 +6351,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>4313037</v>
       </c>
@@ -6369,7 +6362,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>4313060</v>
       </c>
@@ -6380,7 +6373,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>4313086</v>
       </c>
@@ -6391,7 +6384,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>4313102</v>
       </c>
@@ -6402,7 +6395,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>4313201</v>
       </c>
@@ -6413,7 +6406,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>4313300</v>
       </c>
@@ -6424,7 +6417,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>4313334</v>
       </c>
@@ -6435,7 +6428,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>4313359</v>
       </c>
@@ -6446,7 +6439,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>4313375</v>
       </c>
@@ -6457,7 +6450,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>4313391</v>
       </c>
@@ -6468,7 +6461,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>4313409</v>
       </c>
@@ -6479,7 +6472,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>4313425</v>
       </c>
@@ -6490,7 +6483,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>4313441</v>
       </c>
@@ -6501,7 +6494,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>4313466</v>
       </c>
@@ -6512,7 +6505,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>4313490</v>
       </c>
@@ -6523,7 +6516,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>4313508</v>
       </c>
@@ -6534,7 +6527,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>4313607</v>
       </c>
@@ -6545,7 +6538,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>4313656</v>
       </c>
@@ -6556,7 +6549,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>4313706</v>
       </c>
@@ -6567,7 +6560,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>4313805</v>
       </c>
@@ -6578,7 +6571,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>4313904</v>
       </c>
@@ -6589,7 +6582,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>4313953</v>
       </c>
@@ -6600,7 +6593,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>4314001</v>
       </c>
@@ -6611,7 +6604,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>4314027</v>
       </c>
@@ -6622,7 +6615,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>4314035</v>
       </c>
@@ -6633,7 +6626,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>4314050</v>
       </c>
@@ -6644,7 +6637,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>4314068</v>
       </c>
@@ -6655,7 +6648,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>4314076</v>
       </c>
@@ -6666,7 +6659,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>4314100</v>
       </c>
@@ -6677,7 +6670,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>4314134</v>
       </c>
@@ -6688,7 +6681,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>4314159</v>
       </c>
@@ -6699,7 +6692,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>4314175</v>
       </c>
@@ -6710,7 +6703,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>4314209</v>
       </c>
@@ -6721,7 +6714,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>4314308</v>
       </c>
@@ -6732,7 +6725,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>4314407</v>
       </c>
@@ -6743,7 +6736,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>4314423</v>
       </c>
@@ -6754,7 +6747,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>4314456</v>
       </c>
@@ -6765,7 +6758,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>4314464</v>
       </c>
@@ -6776,7 +6769,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>4314472</v>
       </c>
@@ -6787,7 +6780,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>4314498</v>
       </c>
@@ -6798,7 +6791,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>4314506</v>
       </c>
@@ -6809,7 +6802,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>4314548</v>
       </c>
@@ -6820,7 +6813,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>4314555</v>
       </c>
@@ -6831,7 +6824,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>4314605</v>
       </c>
@@ -6842,7 +6835,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>4314704</v>
       </c>
@@ -6853,7 +6846,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>4314753</v>
       </c>
@@ -6864,7 +6857,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>4314779</v>
       </c>
@@ -6875,7 +6868,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>4314787</v>
       </c>
@@ -6886,7 +6879,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>4314803</v>
       </c>
@@ -6897,7 +6890,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>4314902</v>
       </c>
@@ -6908,7 +6901,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>4315008</v>
       </c>
@@ -6919,7 +6912,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>4315057</v>
       </c>
@@ -6930,7 +6923,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>4315073</v>
       </c>
@@ -6941,7 +6934,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>4315107</v>
       </c>
@@ -6952,7 +6945,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>4315131</v>
       </c>
@@ -6963,7 +6956,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>4315149</v>
       </c>
@@ -6974,7 +6967,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>4315156</v>
       </c>
@@ -6985,7 +6978,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>4315172</v>
       </c>
@@ -6996,7 +6989,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>4315206</v>
       </c>
@@ -7007,7 +7000,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>4315305</v>
       </c>
@@ -7018,7 +7011,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>4315313</v>
       </c>
@@ -7029,7 +7022,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>4315321</v>
       </c>
@@ -7040,7 +7033,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>4315354</v>
       </c>
@@ -7051,7 +7044,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>4315404</v>
       </c>
@@ -7062,7 +7055,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>4315453</v>
       </c>
@@ -7073,7 +7066,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>4315503</v>
       </c>
@@ -7084,7 +7077,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>4315552</v>
       </c>
@@ -7095,7 +7088,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>4315602</v>
       </c>
@@ -7106,7 +7099,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>4315701</v>
       </c>
@@ -7117,7 +7110,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>4315750</v>
       </c>
@@ -7128,7 +7121,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>4315800</v>
       </c>
@@ -7139,7 +7132,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>4315909</v>
       </c>
@@ -7150,7 +7143,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>4315958</v>
       </c>
@@ -7161,7 +7154,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>4316006</v>
       </c>
@@ -7172,7 +7165,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>4316105</v>
       </c>
@@ -7183,7 +7176,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>4316204</v>
       </c>
@@ -7194,7 +7187,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>4316303</v>
       </c>
@@ -7205,7 +7198,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>4316402</v>
       </c>
@@ -7216,7 +7209,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>4316428</v>
       </c>
@@ -7227,7 +7220,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>4316436</v>
       </c>
@@ -7238,7 +7231,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>4316451</v>
       </c>
@@ -7249,7 +7242,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>4316477</v>
       </c>
@@ -7260,7 +7253,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>4316501</v>
       </c>
@@ -7271,7 +7264,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>4316600</v>
       </c>
@@ -7282,7 +7275,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>4316709</v>
       </c>
@@ -7293,7 +7286,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>4316733</v>
       </c>
@@ -7304,7 +7297,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>4316758</v>
       </c>
@@ -7315,7 +7308,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>4316808</v>
       </c>
@@ -7326,7 +7319,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>4316907</v>
       </c>
@@ -7337,7 +7330,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>4316956</v>
       </c>
@@ -7348,7 +7341,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>4316972</v>
       </c>
@@ -7359,7 +7352,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>4317004</v>
       </c>
@@ -7370,7 +7363,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>4317103</v>
       </c>
@@ -7381,7 +7374,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>4317202</v>
       </c>
@@ -7392,7 +7385,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>4317251</v>
       </c>
@@ -7403,7 +7396,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>4317301</v>
       </c>
@@ -7414,7 +7407,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>4317400</v>
       </c>
@@ -7425,7 +7418,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>4317509</v>
       </c>
@@ -7436,7 +7429,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>4317558</v>
       </c>
@@ -7447,7 +7440,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>4317608</v>
       </c>
@@ -7458,7 +7451,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>4317707</v>
       </c>
@@ -7469,7 +7462,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>4317756</v>
       </c>
@@ -7480,7 +7473,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>4317806</v>
       </c>
@@ -7491,7 +7484,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>4317905</v>
       </c>
@@ -7502,7 +7495,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>4317954</v>
       </c>
@@ -7513,7 +7506,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>4318002</v>
       </c>
@@ -7524,7 +7517,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>4318051</v>
       </c>
@@ -7535,7 +7528,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>4318101</v>
       </c>
@@ -7546,7 +7539,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>4318200</v>
       </c>
@@ -7557,7 +7550,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>4318309</v>
       </c>
@@ -7568,7 +7561,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>4318408</v>
       </c>
@@ -7579,7 +7572,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>4318424</v>
       </c>
@@ -7590,7 +7583,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>4318432</v>
       </c>
@@ -7601,7 +7594,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>4318440</v>
       </c>
@@ -7612,7 +7605,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>4318457</v>
       </c>
@@ -7623,7 +7616,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>4318465</v>
       </c>
@@ -7634,7 +7627,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>4318481</v>
       </c>
@@ -7645,7 +7638,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>4318499</v>
       </c>
@@ -7656,7 +7649,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>4318507</v>
       </c>
@@ -7667,7 +7660,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>4318606</v>
       </c>
@@ -7678,7 +7671,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>4318614</v>
       </c>
@@ -7689,7 +7682,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>4318622</v>
       </c>
@@ -7700,7 +7693,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>4318705</v>
       </c>
@@ -7711,7 +7704,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>4318804</v>
       </c>
@@ -7722,7 +7715,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>4318903</v>
       </c>
@@ -7733,7 +7726,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>4319000</v>
       </c>
@@ -7744,7 +7737,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>4319109</v>
       </c>
@@ -7755,7 +7748,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>4319125</v>
       </c>
@@ -7766,7 +7759,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>4319158</v>
       </c>
@@ -7777,7 +7770,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>4319208</v>
       </c>
@@ -7788,7 +7781,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>4319307</v>
       </c>
@@ -7799,7 +7792,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>4319356</v>
       </c>
@@ -7810,7 +7803,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>4319364</v>
       </c>
@@ -7821,7 +7814,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>4319372</v>
       </c>
@@ -7832,7 +7825,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>4319406</v>
       </c>
@@ -7843,7 +7836,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>4319505</v>
       </c>
@@ -7854,7 +7847,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>4319604</v>
       </c>
@@ -7865,7 +7858,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>4319703</v>
       </c>
@@ -7876,7 +7869,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>4319711</v>
       </c>
@@ -7887,7 +7880,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>4319737</v>
       </c>
@@ -7898,7 +7891,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>4319752</v>
       </c>
@@ -7909,7 +7902,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>4319802</v>
       </c>
@@ -7920,7 +7913,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>4319901</v>
       </c>
@@ -7931,7 +7924,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>4320008</v>
       </c>
@@ -7942,7 +7935,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>4320107</v>
       </c>
@@ -7953,7 +7946,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>4320206</v>
       </c>
@@ -7964,7 +7957,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>4320230</v>
       </c>
@@ -7975,7 +7968,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>4320263</v>
       </c>
@@ -7986,7 +7979,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>4320305</v>
       </c>
@@ -7997,7 +7990,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>4320321</v>
       </c>
@@ -8008,7 +8001,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>4320354</v>
       </c>
@@ -8019,7 +8012,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>4320404</v>
       </c>
@@ -8030,7 +8023,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>4320453</v>
       </c>
@@ -8041,7 +8034,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>4320503</v>
       </c>
@@ -8052,7 +8045,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>4320552</v>
       </c>
@@ -8063,7 +8056,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>4320578</v>
       </c>
@@ -8074,7 +8067,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>4320602</v>
       </c>
@@ -8085,7 +8078,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>4320651</v>
       </c>
@@ -8096,7 +8089,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>4320677</v>
       </c>
@@ -8107,7 +8100,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>4320701</v>
       </c>
@@ -8118,7 +8111,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>4320800</v>
       </c>
@@ -8129,7 +8122,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>4320859</v>
       </c>
@@ -8140,7 +8133,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>4320909</v>
       </c>
@@ -8151,7 +8144,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>4321006</v>
       </c>
@@ -8162,7 +8155,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>4321105</v>
       </c>
@@ -8173,7 +8166,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>4321204</v>
       </c>
@@ -8184,7 +8177,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>4321303</v>
       </c>
@@ -8195,7 +8188,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>4321329</v>
       </c>
@@ -8206,7 +8199,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>4321352</v>
       </c>
@@ -8217,7 +8210,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>4321402</v>
       </c>
@@ -8228,7 +8221,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>4321436</v>
       </c>
@@ -8239,7 +8232,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>4321451</v>
       </c>
@@ -8250,7 +8243,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>4321469</v>
       </c>
@@ -8261,7 +8254,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>4321477</v>
       </c>
@@ -8272,7 +8265,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>4321493</v>
       </c>
@@ -8283,7 +8276,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>4321501</v>
       </c>
@@ -8294,7 +8287,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>4321600</v>
       </c>
@@ -8305,7 +8298,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>4321626</v>
       </c>
@@ -8316,7 +8309,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>4321634</v>
       </c>
@@ -8327,7 +8320,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>4321667</v>
       </c>
@@ -8338,7 +8331,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>4321709</v>
       </c>
@@ -8349,7 +8342,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>4321808</v>
       </c>
@@ -8360,7 +8353,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>4321832</v>
       </c>
@@ -8371,7 +8364,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>4321857</v>
       </c>
@@ -8382,7 +8375,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>4321907</v>
       </c>
@@ -8393,7 +8386,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>4321956</v>
       </c>
@@ -8404,7 +8397,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>4322004</v>
       </c>
@@ -8415,7 +8408,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>4322103</v>
       </c>
@@ -8426,7 +8419,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>4322152</v>
       </c>
@@ -8437,7 +8430,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>4322186</v>
       </c>
@@ -8448,7 +8441,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>4322202</v>
       </c>
@@ -8459,7 +8452,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>4322251</v>
       </c>
@@ -8470,7 +8463,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>4322301</v>
       </c>
@@ -8481,7 +8474,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>4322327</v>
       </c>
@@ -8492,7 +8485,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>4322343</v>
       </c>
@@ -8503,7 +8496,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>4322350</v>
       </c>
@@ -8514,7 +8507,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>4322376</v>
       </c>
@@ -8525,7 +8518,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>4322400</v>
       </c>
@@ -8536,7 +8529,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>4322509</v>
       </c>
@@ -8547,7 +8540,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>4322525</v>
       </c>
@@ -8558,7 +8551,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>4322533</v>
       </c>
@@ -8569,7 +8562,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>4322541</v>
       </c>
@@ -8580,7 +8573,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>4322558</v>
       </c>
@@ -8591,7 +8584,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>4322608</v>
       </c>
@@ -8602,7 +8595,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>4322707</v>
       </c>
@@ -8613,7 +8606,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>4322806</v>
       </c>
@@ -8624,7 +8617,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>4322855</v>
       </c>
@@ -8635,7 +8628,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>4322905</v>
       </c>
@@ -8646,7 +8639,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>4323002</v>
       </c>
@@ -8657,7 +8650,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>4323101</v>
       </c>
@@ -8668,7 +8661,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>4323200</v>
       </c>
@@ -8679,7 +8672,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>4323309</v>
       </c>
@@ -8690,7 +8683,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>4323358</v>
       </c>
@@ -8701,7 +8694,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>4323408</v>
       </c>
@@ -8712,7 +8705,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>4323457</v>
       </c>
@@ -8723,7 +8716,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>4323507</v>
       </c>
@@ -8734,7 +8727,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>4323606</v>
       </c>
@@ -8745,7 +8738,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>4323705</v>
       </c>
@@ -8756,7 +8749,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>4323754</v>
       </c>
@@ -8767,7 +8760,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>4323770</v>
       </c>
@@ -8778,7 +8771,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>4323804</v>
       </c>
@@ -8788,9 +8781,6 @@
       <c r="C498" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B503" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
